--- a/thermodynamic_properties.xlsx
+++ b/thermodynamic_properties.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cimiguel\Google Drive\primary\elastic_thermobarometry\pt_calculation_scripts\mixing_model_active\solid_inclusion_calculator_matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cimiguel\Google Drive\primary\elastic_thermobarometry\pt_calculation_scripts\mixing_model_active\solid_inclusion_calculator_matlab_windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A76EDB-6160-4E2E-B11D-55F7DE87CD82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C7CDA3-883F-4BF9-A9EF-A35774B05DD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="750" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30600" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="thermodynamic_properties" sheetId="9" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="252">
   <si>
     <t>k0</t>
   </si>
@@ -207,9 +201,6 @@
     <t>Cummingtonite</t>
   </si>
   <si>
-    <t>Ferroactinolite</t>
-  </si>
-  <si>
     <t>Glaucophane</t>
   </si>
   <si>
@@ -612,9 +603,6 @@
     <t>Fe-Epidote</t>
   </si>
   <si>
-    <t>Ferroglaucophane</t>
-  </si>
-  <si>
     <t>Kosmochlor</t>
   </si>
   <si>
@@ -781,6 +769,18 @@
   </si>
   <si>
     <t>delta_T_Pr</t>
+  </si>
+  <si>
+    <t>Glaucophane_Fe</t>
+  </si>
+  <si>
+    <t>Fe-Glaucophane</t>
+  </si>
+  <si>
+    <t>Fe-Actinolite</t>
+  </si>
+  <si>
+    <t>Actinolite_Fe</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1211,8 @@
   <dimension ref="A1:AC212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,91 +1227,91 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="L1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="W1" t="s">
+        <v>244</v>
+      </c>
+      <c r="X1" t="s">
         <v>242</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z1" t="s">
         <v>246</v>
       </c>
-      <c r="X1" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB1" t="s">
         <v>245</v>
       </c>
-      <c r="Z1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>247</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -1440,10 +1440,10 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>207.4</v>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>224.3</v>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>439</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1633,10 +1633,10 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C9">
         <v>113</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C10">
         <v>51.8</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>413</v>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>232</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15">
         <v>106.9</v>
@@ -1925,10 +1925,10 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16">
         <v>188.46</v>
@@ -1986,10 +1986,10 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17">
         <v>418</v>
@@ -2026,10 +2026,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18">
         <v>200.5</v>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20">
         <v>3600</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C21">
         <v>400.6</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C22">
         <v>383.2</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C23">
         <v>390.4</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C24">
         <v>89.8</v>
@@ -2363,10 +2363,10 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25">
         <v>50.4</v>
@@ -2403,10 +2403,10 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26">
         <v>113.7</v>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27">
         <v>63.2</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
@@ -2523,10 +2523,10 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29">
         <v>92.5</v>
@@ -2579,10 +2579,10 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C30">
         <v>73.5</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31">
         <v>135</v>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32">
         <v>118.7</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
@@ -2804,10 +2804,10 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35">
         <v>290</v>
@@ -2844,10 +2844,10 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36">
         <v>221.3</v>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37">
         <v>437</v>
@@ -3096,10 +3096,10 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42">
         <v>39.6</v>
@@ -3136,10 +3136,10 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C43">
         <v>33.14</v>
@@ -3241,10 +3241,10 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45">
         <v>50.9</v>
@@ -3285,10 +3285,10 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46">
         <v>50.86</v>
@@ -3373,10 +3373,10 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C48">
         <v>92.4</v>
@@ -3413,10 +3413,10 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49">
         <v>584</v>
@@ -3453,10 +3453,10 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <v>1650</v>
@@ -3493,10 +3493,10 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C51">
         <v>2.38</v>
@@ -3537,10 +3537,10 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52">
         <v>34.5</v>
@@ -3621,10 +3621,10 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C54">
         <v>156.1</v>
@@ -3686,10 +3686,10 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55">
         <v>318</v>
@@ -3812,10 +3812,10 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C58">
         <v>83</v>
@@ -3896,10 +3896,10 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C60">
         <v>91.5</v>
@@ -3936,10 +3936,10 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C61">
         <v>725</v>
@@ -3976,10 +3976,10 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C62">
         <v>167</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C63">
         <v>461</v>
@@ -4077,10 +4077,10 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C64">
         <v>329</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C65">
         <v>762</v>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B66" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C66">
         <v>91</v>
@@ -4203,10 +4203,10 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B67" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C67">
         <v>140</v>
@@ -4243,10 +4243,10 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B68" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C68">
         <v>320</v>
@@ -4283,10 +4283,10 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>251</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>250</v>
       </c>
       <c r="C69">
         <v>710</v>
@@ -4327,10 +4327,10 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C70">
         <v>251.1</v>
@@ -4367,10 +4367,10 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C71">
         <v>330</v>
@@ -4407,10 +4407,10 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="B72" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="C72">
         <v>624</v>
@@ -4451,10 +4451,10 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B73" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C73">
         <v>60.6</v>
@@ -4535,10 +4535,10 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B75" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C75">
         <v>930.2</v>
@@ -4575,10 +4575,10 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B76" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C76">
         <v>456</v>
@@ -4615,10 +4615,10 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B77" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C77">
         <v>485</v>
@@ -4655,10 +4655,10 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B78" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C78">
         <v>1010</v>
@@ -4695,10 +4695,10 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C79">
         <v>352</v>
@@ -4735,10 +4735,10 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B80" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C80">
         <v>146</v>
@@ -4880,10 +4880,10 @@
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C83">
         <v>73.599999999999994</v>
@@ -4920,10 +4920,10 @@
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C84">
         <v>530</v>
@@ -4964,10 +4964,10 @@
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B85" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C85">
         <v>60.3</v>
@@ -5048,10 +5048,10 @@
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87">
         <v>310</v>
@@ -5088,10 +5088,10 @@
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C88">
         <v>255</v>
@@ -5135,10 +5135,10 @@
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C89">
         <v>735</v>
@@ -5179,10 +5179,10 @@
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C90">
         <v>72.099999999999994</v>
@@ -5263,10 +5263,10 @@
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C92">
         <v>87.4</v>
@@ -5319,10 +5319,10 @@
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C93">
         <v>113.9</v>
@@ -5380,10 +5380,10 @@
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C94">
         <v>783</v>
@@ -5420,10 +5420,10 @@
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C95">
         <v>166.2</v>
@@ -5460,10 +5460,10 @@
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C96">
         <v>475.6</v>
@@ -5524,7 +5524,7 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C97">
         <v>100.5</v>
@@ -5561,10 +5561,10 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C98">
         <v>109.5</v>
@@ -5617,10 +5617,10 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C99">
         <v>27.09</v>
@@ -5757,10 +5757,10 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102">
         <v>136</v>
@@ -5797,10 +5797,10 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B103" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C103">
         <v>203.7</v>
@@ -5837,10 +5837,10 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C104">
         <v>281.5</v>
@@ -5917,10 +5917,10 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B106" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C106">
         <v>149.65</v>
@@ -5983,8 +5983,12 @@
       <c r="K107">
         <v>8</v>
       </c>
-      <c r="U107" s="2"/>
-      <c r="V107" s="3"/>
+      <c r="U107" s="2">
+        <v>1051</v>
+      </c>
+      <c r="V107" s="3">
+        <v>0.26922908037060345</v>
+      </c>
       <c r="X107">
         <v>1</v>
       </c>
@@ -6049,10 +6053,10 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109">
         <v>465</v>
@@ -6129,10 +6133,10 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C111">
         <v>198.5</v>
@@ -6190,10 +6194,10 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C112">
         <v>38.1</v>
@@ -6234,10 +6238,10 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B113" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C113">
         <v>212</v>
@@ -6274,10 +6278,10 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B114" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C114">
         <v>70.8</v>
@@ -6326,10 +6330,10 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B115" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C115">
         <v>221.5</v>
@@ -6366,10 +6370,10 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B116" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C116">
         <v>121</v>
@@ -6418,10 +6422,10 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C117">
         <v>65.5</v>
@@ -6462,10 +6466,10 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C118">
         <v>146.9</v>
@@ -6562,10 +6566,10 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C120">
         <v>59.7</v>
@@ -6602,10 +6606,10 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B121" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C121">
         <v>265</v>
@@ -6642,10 +6646,10 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C122">
         <v>752</v>
@@ -6722,10 +6726,10 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C124">
         <v>146</v>
@@ -6762,10 +6766,10 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B125" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C125">
         <v>62.6</v>
@@ -6806,10 +6810,10 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B126" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C126">
         <v>90</v>
@@ -6846,10 +6850,10 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B127" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C127">
         <v>59.3</v>
@@ -6886,10 +6890,10 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B128" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C128">
         <v>910</v>
@@ -6926,10 +6930,10 @@
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B129" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C129">
         <v>847.4</v>
@@ -6966,7 +6970,7 @@
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B130" t="s">
         <v>55</v>
@@ -7006,10 +7010,10 @@
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B131" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C131">
         <v>93.9</v>
@@ -7046,10 +7050,10 @@
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B132" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C132">
         <v>214.3</v>
@@ -7090,10 +7094,10 @@
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B133" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C133">
         <v>355</v>
@@ -7130,10 +7134,10 @@
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B134" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C134">
         <v>263.89999999999998</v>
@@ -7170,10 +7174,10 @@
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B135" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C135">
         <v>433</v>
@@ -7210,10 +7214,10 @@
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B136" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C136">
         <v>595</v>
@@ -7250,10 +7254,10 @@
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B137" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C137">
         <v>166</v>
@@ -7290,10 +7294,10 @@
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B138" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C138">
         <v>473</v>
@@ -7351,10 +7355,10 @@
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B139" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C139">
         <v>1034</v>
@@ -7435,10 +7439,10 @@
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B141" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C141">
         <v>292</v>
@@ -7479,10 +7483,10 @@
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B142" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C142">
         <v>318</v>
@@ -7519,10 +7523,10 @@
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B143" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C143">
         <v>124.4</v>
@@ -7575,10 +7579,10 @@
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B144" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C144">
         <v>29.87</v>
@@ -7627,10 +7631,10 @@
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B145" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C145">
         <v>38</v>
@@ -7759,10 +7763,10 @@
     </row>
     <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B148" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C148">
         <v>277</v>
@@ -7799,10 +7803,10 @@
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B149" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C149">
         <v>635</v>
@@ -7843,10 +7847,10 @@
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B150" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C150">
         <v>26.5</v>
@@ -7927,10 +7931,10 @@
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B152" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C152">
         <v>326</v>
@@ -7967,10 +7971,10 @@
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B153" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C153">
         <v>118.3</v>
@@ -8068,10 +8072,10 @@
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B155" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C155">
         <v>292.8</v>
@@ -8108,10 +8112,10 @@
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B156" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C156">
         <v>245</v>
@@ -8232,10 +8236,10 @@
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B159" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C159">
         <v>657</v>
@@ -8272,10 +8276,10 @@
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B160" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C160">
         <v>629</v>
@@ -8312,10 +8316,10 @@
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B161" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C161">
         <v>52.9</v>
@@ -8352,7 +8356,7 @@
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
@@ -8396,10 +8400,10 @@
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B163" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C163">
         <v>105.5</v>
@@ -8436,10 +8440,10 @@
     </row>
     <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B164" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C164">
         <v>239</v>
@@ -8516,10 +8520,10 @@
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B166" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C166">
         <v>65.5</v>
@@ -8568,10 +8572,10 @@
     </row>
     <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B167" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C167">
         <v>57.5</v>
@@ -8620,10 +8624,10 @@
     </row>
     <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B168" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C168">
         <v>41.43</v>
@@ -8721,10 +8725,10 @@
     </row>
     <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B170" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C170">
         <v>98</v>
@@ -8801,10 +8805,10 @@
     </row>
     <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B172" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C172">
         <v>695</v>
@@ -8845,10 +8849,10 @@
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B173" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C173">
         <v>50.5</v>
@@ -8901,10 +8905,10 @@
     </row>
     <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B174" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C174">
         <v>214.3</v>
@@ -8962,10 +8966,10 @@
     </row>
     <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B175" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C175">
         <v>425.5</v>
@@ -9002,10 +9006,10 @@
     </row>
     <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B176" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C176">
         <v>419.5</v>
@@ -9042,10 +9046,10 @@
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B177" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C177">
         <v>93.3</v>
@@ -9147,10 +9151,10 @@
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B179" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C179">
         <v>101.5</v>
@@ -9187,10 +9191,10 @@
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B180" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C180">
         <v>910</v>
@@ -9227,7 +9231,7 @@
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B181" t="s">
         <v>8</v>
@@ -9323,10 +9327,10 @@
     </row>
     <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B183" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C183">
         <v>82</v>
@@ -9428,10 +9432,10 @@
     </row>
     <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B185" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C185">
         <v>710</v>
@@ -9468,10 +9472,10 @@
     </row>
     <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B186" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C186">
         <v>24</v>
@@ -9512,10 +9516,10 @@
     </row>
     <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B187" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C187">
         <v>395</v>
@@ -9552,10 +9556,10 @@
     </row>
     <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B188" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C188">
         <v>32.049999999999997</v>
@@ -9592,10 +9596,10 @@
     </row>
     <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B189" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C189">
         <v>82.6</v>
@@ -9632,10 +9636,10 @@
     </row>
     <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B190" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C190">
         <v>259</v>
@@ -9672,10 +9676,10 @@
     </row>
     <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B191" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C191">
         <v>42.6</v>
@@ -9792,10 +9796,10 @@
     </row>
     <row r="194" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B194" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C194">
         <v>553</v>
@@ -9836,10 +9840,10 @@
     </row>
     <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B195" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C195">
         <v>44.1</v>
@@ -9876,10 +9880,10 @@
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B196" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C196">
         <v>60</v>
@@ -9928,10 +9932,10 @@
     </row>
     <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B197" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C197">
         <v>533</v>
@@ -9972,10 +9976,10 @@
     </row>
     <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B198" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C198">
         <v>259</v>
@@ -10012,10 +10016,10 @@
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B199" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C199">
         <v>180</v>
@@ -10096,10 +10100,10 @@
     </row>
     <row r="201" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B201" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C201">
         <v>254</v>
@@ -10136,10 +10140,10 @@
     </row>
     <row r="202" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B202" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C202">
         <v>380</v>
@@ -10243,7 +10247,9 @@
         <v>5</v>
       </c>
       <c r="U204" s="2"/>
-      <c r="V204" s="3"/>
+      <c r="V204">
+        <v>0.26</v>
+      </c>
       <c r="X204">
         <v>1</v>
       </c>
@@ -10342,7 +10348,7 @@
     </row>
     <row r="207" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AA207">
         <v>0</v>
@@ -10350,27 +10356,27 @@
     </row>
     <row r="208" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
